--- a/backend/api/servicehandler/services/Dentist.xlsx
+++ b/backend/api/servicehandler/services/Dentist.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/behnaz_merikhi_utoronto_ca/Documents/ASD Project/DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dextertam/Documents/UofT/Y3/_Extracurricular/AutismCanadaAI/backend/api/servicehandler/services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{D3EC7368-B519-48A0-9174-F17F1762D45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44BC5D6-999A-4549-B1C1-C3907B210478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recovered_Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="202">
   <si>
     <t>https://www.myautismguide.ca/mag/content/provider/abc-dental-0?nid=568231</t>
   </si>
@@ -107,9 +106,6 @@
     <t>35 Oxford Street West London, ONN6H 1R4</t>
   </si>
   <si>
-    <t>519-434-2183</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/brenda-bubnik?nid=570621</t>
   </si>
   <si>
@@ -215,9 +211,6 @@
     <t>Toronto, ON</t>
   </si>
   <si>
-    <t>416-554-1286</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/community-outreach-mobile-dental-hygiene-services?nid=571991</t>
   </si>
   <si>
@@ -566,9 +559,6 @@
     <t>345 Steeles Ave East Milton, ONl9t 3g6</t>
   </si>
   <si>
-    <t>9058762473</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/norton-dental-guelph?nid=585586</t>
   </si>
   <si>
@@ -590,18 +580,12 @@
     <t>230 Silvercreek Parkway N. Guelph, ONn1h7p8</t>
   </si>
   <si>
-    <t>519-822-2273</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/smiletown-kids-dentistry-0?nid=585531</t>
   </si>
   <si>
     <t>5 Meadowcreek Lane Cambridge, ONn3h4r8</t>
   </si>
   <si>
-    <t>519-794-9981</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/accolade-dental-centre?nid=578556</t>
   </si>
   <si>
@@ -636,6 +620,12 @@
   </si>
   <si>
     <t>Myautism webpage Info</t>
+  </si>
+  <si>
+    <t>(905) 876-2473</t>
+  </si>
+  <si>
+    <t>(519) 794-9981</t>
   </si>
 </sst>
 </file>
@@ -679,9 +669,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,756 +1015,758 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="138" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.375" customWidth="1"/>
-    <col min="2" max="2" width="45.875" customWidth="1"/>
-    <col min="3" max="3" width="36.75" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>63</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B19" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>67</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B20" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B21" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>75</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>78</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>81</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B24" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>85</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B25" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>89</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B26" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>93</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B27" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C27" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>97</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B28" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C28" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>101</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B29" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C29" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>105</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B30" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C30" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>109</v>
       </c>
-      <c r="D30" t="s">
+      <c r="B31" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>113</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B32" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C32" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>117</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B33" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>121</v>
       </c>
-      <c r="D33" t="s">
+      <c r="B34" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C34" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>125</v>
       </c>
-      <c r="D34" t="s">
+      <c r="B35" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C35" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>129</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B36" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C36" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>133</v>
       </c>
-      <c r="D36" t="s">
+      <c r="B37" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C37" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>137</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B38" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>141</v>
       </c>
-      <c r="D38" t="s">
+      <c r="B39" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C39" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>145</v>
       </c>
-      <c r="D39" t="s">
+      <c r="B40" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C40" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>149</v>
       </c>
-      <c r="D40" t="s">
+      <c r="B41" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C41" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>153</v>
       </c>
-      <c r="D41" t="s">
+      <c r="B42" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C42" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>157</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B43" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C43" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>160</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B44" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C44" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>164</v>
       </c>
-      <c r="D44" t="s">
+      <c r="B45" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C45" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>168</v>
       </c>
-      <c r="D45" t="s">
+      <c r="B46" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C46" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>172</v>
       </c>
-      <c r="D46" t="s">
+      <c r="B47" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C47" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>176</v>
       </c>
-      <c r="D47" t="s">
+      <c r="B48" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C48" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>179</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B49" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C49" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="D49" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>183</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B50" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C50" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="D50" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>186</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D51" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>188</v>
       </c>
-      <c r="D50" t="s">
+      <c r="B52" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C52" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B51" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D52" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D51" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B53" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C53" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D53" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D52" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>197</v>
-      </c>
-      <c r="B53" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" t="s">
-        <v>199</v>
-      </c>
-      <c r="D53" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
